--- a/CAS OH_Glossary_new.xlsx
+++ b/CAS OH_Glossary_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/camille_doras_unibe_ch/Documents/Curriculum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{68E337C2-AD56-44E2-AFD9-108FC29A478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024BBCDB-DBFF-4EED-B1C8-1F4BF3FFB346}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053AB87F-056B-4BED-BD50-C5EB7F91623D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{B684380F-0BFE-4D88-B3C2-6D99E7D08CCC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B684380F-0BFE-4D88-B3C2-6D99E7D08CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Introduction" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>Veterinary Public Health Institute</t>
   </si>
@@ -324,13 +324,19 @@
   </si>
   <si>
     <t xml:space="preserve">Governance </t>
+  </si>
+  <si>
+    <t>Bioinformatic</t>
+  </si>
+  <si>
+    <t>Reda's Master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -637,16 +643,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,40 +1433,40 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="H8" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="21">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="13">
         <v>3</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1513,19 +1516,19 @@
       <selection activeCell="C6" sqref="B5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.7265625" style="1" customWidth="1"/>
     <col min="2" max="3" width="45.81640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="16.5" customHeight="1">
       <c r="C1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="16.5" customHeight="1" thickTop="1">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="16.5" customHeight="1">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="16.5" customHeight="1">
       <c r="B6" s="25" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="16.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="16.5" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="16.5" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="16.5" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="16.5" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="16.5" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" ht="16.5" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" ht="16.5" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" ht="16.5" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" ht="16.5" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="16.5" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="16.5" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="16.5" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" ht="16.5" customHeight="1">
       <c r="B20" s="25" t="s">
         <v>69</v>
       </c>
@@ -1669,19 +1672,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="16.5" customHeight="1">
       <c r="B21" s="25"/>
       <c r="C21" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" ht="16.5" customHeight="1">
       <c r="B22" s="25"/>
       <c r="C22" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" ht="16.5" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" ht="16.5" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" ht="16.5" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" ht="16.5" customHeight="1">
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" ht="16.5" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -1721,11 +1724,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" ht="16.5" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" ht="16.5" customHeight="1">
       <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" ht="16.5" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
     </row>
@@ -1751,27 +1754,27 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:P9"/>
+  <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.1796875" style="15" customWidth="1"/>
     <col min="2" max="2" width="25.26953125" style="23" customWidth="1"/>
     <col min="3" max="3" width="25.26953125" style="24" customWidth="1"/>
     <col min="4" max="4" width="66.7265625" style="24" customWidth="1"/>
     <col min="5" max="5" width="25.26953125" style="24" customWidth="1"/>
-    <col min="6" max="9" width="3.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="3.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="3.90625" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="3.81640625" style="34" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="87.1796875" style="24" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="16.5" customHeight="1">
       <c r="B1" s="15"/>
       <c r="C1" s="11" t="s">
         <v>46</v>
@@ -1790,7 +1793,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="2:16" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="11" customHeight="1">
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1809,7 +1812,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" ht="16.5" customHeight="1" thickBot="1">
       <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
@@ -1822,41 +1825,41 @@
       <c r="E3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="30" t="s">
         <v>90</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:16" s="19" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" s="19" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
       <c r="B4" s="17" t="s">
         <v>51</v>
       </c>
@@ -1865,23 +1868,23 @@
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="2:16" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" s="19" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="20" t="s">
         <v>55</v>
       </c>
@@ -1890,19 +1893,19 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="2:16" s="19" customFormat="1" ht="97.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" s="19" customFormat="1" ht="97.9" customHeight="1">
       <c r="B6" s="20" t="s">
         <v>57</v>
       </c>
@@ -1915,21 +1918,21 @@
       <c r="E6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" s="19" customFormat="1" ht="16.5" customHeight="1">
       <c r="B7" s="20" t="s">
         <v>61</v>
       </c>
@@ -1938,19 +1941,19 @@
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="2:16" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" s="19" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="20" t="s">
         <v>63</v>
       </c>
@@ -1959,24 +1962,32 @@
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="16.5" customHeight="1">
       <c r="B9" s="23" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="16.5" customHeight="1">
+      <c r="C10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1996,17 +2007,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="151.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
         <v>76</v>
       </c>
